--- a/biology/Histoire de la zoologie et de la botanique/Hymen_Marx/Hymen_Marx.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hymen_Marx/Hymen_Marx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymen Marx, né le 27 juin 1925 à Chicago, mort le 25 janvier 2007 à Sun City (Arizona), est un herpétologiste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons décrits en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ramphotyphlops marxi (Wallach)</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Azemiopinae
 Adenorhinos
@@ -576,7 +592,9 @@
           <t>Quelques articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marx, 1952 : Atractaspis (Moleviper), a new record for Egypt. Copeia 1952 pp. 278–279.
 Marx, 1953 : The elapid genus of snakes Walterinnesia. Fieldiana: Zoology 34 pp. 189–196.
